--- a/data/long_dif/P24_4-Edad-long_dif.xlsx
+++ b/data/long_dif/P24_4-Edad-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +651,67 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,57%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,68%</t>
+          <t>16,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,69%</t>
+          <t>16,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>16,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>10,25%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>12,96%</t>
+          <t>10,96%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>13,6%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13,42%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,75; 10,72</t>
+          <t>1,88; 10,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,11; 26,38</t>
+          <t>9,23; 23,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 17,46</t>
+          <t>5,51; 21,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>11,81; 25,89</t>
+          <t>8,53; 28,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,06; 23,52</t>
+          <t>11,18; 24,21</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,92; 22,84</t>
+          <t>9,98; 23,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,63; 16,19</t>
+          <t>11,14; 23,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,71; 21,79</t>
+          <t>5,31; 16,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,07; 18,04</t>
+          <t>7,28; 15,31</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>11,31; 21,58</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>9,59; 19,74</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8,68; 20,83</t>
         </is>
       </c>
     </row>
@@ -733,52 +787,67 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>80,97%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>74,0%</t>
+          <t>71,19%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>77,06%</t>
+          <t>74,4%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,13%</t>
+          <t>59,32%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>70,68%</t>
+          <t>67,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>68,96%</t>
+          <t>71,17%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>74,31%</t>
+          <t>69,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>72,37%</t>
+          <t>63,71%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>73,03%</t>
+          <t>74,71%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>71,18%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>71,73%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>61,56%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>73,24; 88,35</t>
+          <t>72,38; 87,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>63,66; 82,83</t>
+          <t>59,52; 81,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>67,34; 84,88</t>
+          <t>63,55; 83,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,14; 74,88</t>
+          <t>44,65; 71,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>61,23; 78,33</t>
+          <t>59,67; 76,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,44; 76,82</t>
+          <t>62,57; 79,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>69,0; 79,88</t>
+          <t>60,12; 76,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>65,66; 78,41</t>
+          <t>53,82; 73,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>66,23; 78,38</t>
+          <t>69,05; 80,17</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>63,59; 77,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>65,0; 77,33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>53,63; 70,11</t>
         </is>
       </c>
     </row>
@@ -839,52 +923,67 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,43%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,19%</t>
+          <t>23,95%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,63%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>14,5%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>11,49%</t>
+          <t>26,04%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,01%</t>
+          <t>14,33%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>12,87%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14,67%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>25,01%</t>
         </is>
       </c>
     </row>
@@ -897,104 +996,130 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 20,83</t>
+          <t>8,19; 20,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,4; 17,68</t>
+          <t>6,02; 26,38</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,87; 21,24</t>
+          <t>8,19; 24,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 22,27</t>
+          <t>13,03; 38,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,33; 21,96</t>
+          <t>9,16; 22,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,18; 21,12</t>
+          <t>7,21; 19,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,27; 19,31</t>
+          <t>8,72; 20,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 16,69</t>
+          <t>17,57; 36,09</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 18,59</t>
+          <t>10,24; 19,69</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8,34; 19,87</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10,19; 19,7</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17,95; 32,97</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12,19%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,98%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>8,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1132,134 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 11,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 13,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,47; 18,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 15,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,08; 18,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>12,33; 23,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 11,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 13,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,08; 18,57</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>86,61%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>79,38%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>83,06%</t>
+          <t>12,42%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>76,1%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>73,38%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>71,92%</t>
+          <t>11,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>17,26%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>76,58%</t>
+          <t>15,23%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>77,84%</t>
+          <t>7,26%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,55%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14,68%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>10,13%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1272,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>76,0; 92,59</t>
+          <t>2,26; 10,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>69,87; 86,46</t>
+          <t>2,48; 11,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>75,23; 88,35</t>
+          <t>7,55; 18,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>68,24; 83,52</t>
+          <t>2,11; 12,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>64,63; 80,19</t>
+          <t>5,1; 16,4</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,17; 77,68</t>
+          <t>6,98; 18,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>75,42; 86,39</t>
+          <t>12,14; 22,9</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70,92; 82,0</t>
+          <t>9,73; 23,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>72,8; 82,33</t>
+          <t>4,53; 11,32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,31; 12,61</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,05; 18,98</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>6,35; 14,39</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1335,67 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>86,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>80,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>83,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>80,13%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>73,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>11,25%</t>
+          <t>71,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,53%</t>
+          <t>57,3%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>81,0%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>77,37%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>77,86%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>69,83%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1408,130 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,75; 19,31</t>
+          <t>74,89; 92,54</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,72; 22,94</t>
+          <t>71,61; 87,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,99; 9,73</t>
+          <t>76,48; 89,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>9,42; 21,85</t>
+          <t>69,52; 88,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>9,47; 21,67</t>
+          <t>66,54; 81,7</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,75; 15,47</t>
+          <t>66,18; 81,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,4; 16,36</t>
+          <t>65,49; 77,67</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,34; 19,57</t>
+          <t>47,15; 65,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,15; 11,02</t>
+          <t>74,57; 86,31</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>71,58; 82,58</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>72,94; 82,59</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>62,49; 77,59</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,92%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>13,92%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>13,15%</t>
+          <t>15,55%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>10,3%</t>
+          <t>27,48%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,94%</t>
+          <t>11,74%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1544,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,47; 10,73</t>
+          <t>3,12; 20,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,98; 12,14</t>
+          <t>7,74; 22,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,76; 12,52</t>
+          <t>1,94; 9,01</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,93; 15,42</t>
+          <t>7,3; 22,42</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>9,3; 17,56</t>
+          <t>10,44; 22,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,35; 15,64</t>
+          <t>9,13; 21,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,1; 11,69</t>
+          <t>7,18; 16,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,52</t>
+          <t>19,66; 37,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,47; 13,09</t>
+          <t>7,88; 18,2</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>9,89; 18,83</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>4,78; 10,56</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>14,11; 26,75</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1607,67 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>83,47%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>83,05%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>82,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>78,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>72,86%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>67,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>80,99%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>77,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>74,78%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1680,134 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>77,18; 88,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>76,63; 88,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>71,95; 87,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>72,47; 83,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>67,28; 78,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>61,7; 72,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>76,96; 84,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>72,98; 82,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>69,84; 78,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>7,33%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>8,6%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>12,34%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>15,28%</t>
+          <t>9,17%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>10,4%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>10,0%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>12,42%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +1820,130 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,09; 15,0</t>
+          <t>3,84; 12,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>5,63; 15,25</t>
+          <t>3,54; 10,67</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,13; 21,75</t>
+          <t>4,55; 12,07</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,1; 15,42</t>
+          <t>4,78; 13,87</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,11; 19,03</t>
+          <t>7,54; 15,9</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>16,34; 25,73</t>
+          <t>9,78; 19,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>7,5; 13,54</t>
+          <t>8,85; 17,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>9,11; 15,6</t>
+          <t>11,45; 21,43</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>12,08; 20,57</t>
+          <t>6,36; 12,28</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>7,68; 13,8</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7,29; 12,69</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>9,37; 16,26</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>45-54</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>81,9%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>83,56%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>83,42%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>12,68%</t>
+          <t>76,86%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>9,92%</t>
+          <t>77,96%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>71,65%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>67,22%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>64,65%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>79,94%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>77,34%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>75,17%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>70,49%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +1956,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,82</t>
+          <t>75,4; 87,25</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>4,34; 22,24</t>
+          <t>77,3; 88,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>5,8; 12,56</t>
+          <t>74,54; 88,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8,8; 17,61</t>
+          <t>69,21; 83,36</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>6,43; 13,94</t>
+          <t>72,05; 82,97</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>12,29; 20,8</t>
+          <t>65,73; 77,1</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,8; 9,85</t>
+          <t>61,11; 71,75</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>6,57; 15,38</t>
+          <t>57,51; 70,54</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>9,97; 15,64</t>
+          <t>76,09; 83,89</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>72,62; 81,39</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>70,86; 79,32</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>65,63; 75,08</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2019,67 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>91,32%</t>
+          <t>10,77%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>81,99%</t>
+          <t>9,82%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>84,26%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>72,96%</t>
+          <t>14,55%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>70,59%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>66,58%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>81,66%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>76,13%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>75,23%</t>
+          <t>10,89%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>14,83%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>17,09%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2092,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>86,88; 94,85</t>
+          <t>6,79; 15,91</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>73,1; 87,53</t>
+          <t>6,14; 15,42</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>79,23; 87,99</t>
+          <t>4,76; 20,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>66,43; 78,58</t>
+          <t>9,93; 20,26</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>64,43; 77,11</t>
+          <t>7,89; 16,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>61,41; 71,71</t>
+          <t>10,22; 18,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>77,8; 85,19</t>
+          <t>16,14; 25,3</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>70,83; 80,26</t>
+          <t>14,69; 26,02</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>71,45; 78,83</t>
+          <t>7,99; 14,02</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>9,27; 15,62</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>11,77; 19,41</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>13,39; 20,97</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2155,67 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>14,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>14,42%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>12,24%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1863,104 +2228,134 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4,51; 12,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>5,81; 13,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>4,11; 10,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>9,99; 19,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>14,37; 24,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>13,53; 21,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>8,46; 14,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>11,31; 17,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>9,67; 15,33</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>55-64</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>10,22%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>13,75%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>9,74%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>7,16%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>9,54%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>12,65%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>9,47%</t>
         </is>
       </c>
     </row>
@@ -1973,47 +2368,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>3,21; 18,13</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,57; 11,22</t>
+          <t>4,29; 20,11</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,14; 16,9</t>
+          <t>5,77; 13,35</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,34; 10,62</t>
+          <t>2,08; 8,16</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>8,15; 19,23</t>
+          <t>8,96; 18,0</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>9,53; 19,23</t>
+          <t>6,67; 15,05</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,23; 12,59</t>
+          <t>12,06; 20,66</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,77; 13,49</t>
+          <t>9,91; 19,78</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>9,05; 15,79</t>
+          <t>5,11; 9,72</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>6,78; 15,28</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>9,99; 15,85</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>7,22; 12,97</t>
         </is>
       </c>
     </row>
@@ -2021,52 +2431,67 @@
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>84,78%</t>
+          <t>91,26%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>81,44%</t>
+          <t>82,13%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>78,48%</t>
+          <t>84,01%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>73,88%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>72,81%</t>
+          <t>72,35%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>68,09%</t>
+          <t>70,93%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>79,21%</t>
+          <t>66,21%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>77,31%</t>
+          <t>62,96%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>73,25%</t>
+          <t>81,42%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>76,39%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>74,88%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>68,91%</t>
         </is>
       </c>
     </row>
@@ -2079,47 +2504,62 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>76,1; 90,89</t>
+          <t>86,89; 94,54</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>71,43; 87,78</t>
+          <t>73,29; 87,92</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>71,56; 84,11</t>
+          <t>79,11; 88,25</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>65,9; 79,75</t>
+          <t>61,43; 82,54</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>64,98; 79,33</t>
+          <t>66,32; 77,56</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>61,46; 74,4</t>
+          <t>65,05; 77,03</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>73,9; 83,83</t>
+          <t>60,7; 71,8</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>71,35; 82,29</t>
+          <t>56,08; 69,5</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>68,73; 77,15</t>
+          <t>77,72; 84,63</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>71,22; 80,57</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>71,12; 78,65</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>61,26; 73,48</t>
         </is>
       </c>
     </row>
@@ -2127,52 +2567,67 @@
       <c r="A32" s="1" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>11,3%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>20,62%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>14,32%</t>
+          <t>14,65%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>17,65%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>12,95%</t>
+          <t>22,6%</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>11,42%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>14,07%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>12,47%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>21,62%</t>
         </is>
       </c>
     </row>
@@ -2185,104 +2640,130 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,92</t>
+          <t>4,86; 12,2</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>6,48; 21,88</t>
+          <t>5,63; 13,33</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>7,37; 16,3</t>
+          <t>4,36; 10,36</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>14,53; 27,23</t>
+          <t>13,47; 35,67</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,08; 21,16</t>
+          <t>10,27; 19,5</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>13,6; 24,44</t>
+          <t>13,68; 24,27</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>10,06; 18,45</t>
+          <t>13,74; 22,86</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>9,19; 19,47</t>
+          <t>17,06; 28,61</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>11,7; 18,69</t>
+          <t>8,62; 14,53</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 17,67</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>9,66; 15,52</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>16,94; 28,88</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>15,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>14,25%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2295,100 +2776,134 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>2,49; 9,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>4,22; 15,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>5,9; 15,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>9,81; 21,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>8,62; 23,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,72; 17,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>7,52; 15,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>8,19; 17,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>8,13; 15,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>83,47%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>73,15%</t>
+          <t>7,13%</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>73,69%</t>
+          <t>10,48%</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>67,53%</t>
+          <t>18,45%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>68,02%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>72,97%</t>
+          <t>12,64%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>74,49%</t>
+          <t>13,99%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>70,13%</t>
+          <t>15,63%</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>73,28%</t>
+          <t>6,97%</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>9,78%</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>12,25%</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>17,01%</t>
         </is>
       </c>
     </row>
@@ -2401,47 +2916,62 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>75,91; 89,31</t>
+          <t>3,41; 16,34</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>53,31; 83,54</t>
+          <t>3,93; 12,25</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>63,84; 80,79</t>
+          <t>5,92; 17,03</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>58,89; 74,93</t>
+          <t>11,79; 29,0</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>59,06; 76,84</t>
+          <t>3,4; 11,21</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>65,85; 79,75</t>
+          <t>8,04; 19,2</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>68,88; 79,75</t>
+          <t>9,56; 19,28</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>60,62; 76,16</t>
+          <t>9,75; 21,96</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>67,54; 78,3</t>
+          <t>4,35; 11,47</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 13,36</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>8,89; 15,58</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>12,14; 23,16</t>
         </is>
       </c>
     </row>
@@ -2449,52 +2979,67 @@
       <c r="A38" s="1" t="n"/>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>84,85%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>17,99%</t>
+          <t>80,59%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>15,82%</t>
+          <t>78,11%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>17,23%</t>
+          <t>69,63%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>17,74%</t>
+          <t>73,67%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>14,99%</t>
+          <t>72,14%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>67,63%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>17,84%</t>
+          <t>65,87%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>15,35%</t>
+          <t>79,17%</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>76,53%</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>72,82%</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>67,71%</t>
         </is>
       </c>
     </row>
@@ -2507,104 +3052,130 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>6,15; 17,52</t>
+          <t>76,9; 90,54</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>7,56; 40,18</t>
+          <t>70,21; 87,01</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>9,43; 25,75</t>
+          <t>71,11; 84,34</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>11,39; 25,26</t>
+          <t>60,29; 77,85</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>11,8; 24,17</t>
+          <t>66,44; 80,11</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>10,06; 22,65</t>
+          <t>63,4; 79,5</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>10,51; 19,5</t>
+          <t>61,29; 74,1</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>12,85; 29,01</t>
+          <t>57,59; 74,34</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>11,37; 20,83</t>
+          <t>73,79; 83,47</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>70,25; 81,72</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>68,31; 77,2</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>61,77; 73,79</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A40" s="1" t="n"/>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>7,49%</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>12,29%</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>11,42%</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>11,92%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>20,04%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>14,4%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>18,5%</t>
         </is>
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>12,13%</t>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>13,69%</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>15,28%</t>
         </is>
       </c>
     </row>
@@ -2617,47 +3188,62 @@
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>3,83; 7,11</t>
+          <t>4,03; 12,07</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>7,06; 11,5</t>
+          <t>7,49; 24,41</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>7,87; 12,02</t>
+          <t>7,0; 16,21</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>9,93; 14,21</t>
+          <t>7,44; 17,88</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>10,76; 15,38</t>
+          <t>14,48; 26,37</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>12,57; 16,37</t>
+          <t>9,99; 22,11</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>7,42; 10,07</t>
+          <t>13,75; 24,22</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
         <is>
-          <t>9,49; 12,67</t>
+          <t>12,62; 26,0</t>
         </is>
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>10,81; 13,63</t>
+          <t>10,27; 17,92</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>9,98; 20,19</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>11,63; 18,56</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>11,29; 20,39</t>
         </is>
       </c>
     </row>
@@ -2665,52 +3251,67 @@
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>85,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>79,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>80,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>72,76%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>71,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>69,32%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>78,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
         <is>
-          <t>75,14%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>74,62%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -2723,100 +3324,134 @@
       </c>
       <c r="C43" s="2" t="inlineStr">
         <is>
-          <t>82,56; 87,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>75,19; 82,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>77,08; 82,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>69,86; 75,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>67,95; 74,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H43" s="2" t="inlineStr">
         <is>
-          <t>66,69; 71,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I43" s="2" t="inlineStr">
         <is>
-          <t>76,84; 81,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J43" s="2" t="inlineStr">
         <is>
-          <t>72,33; 77,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>72,76; 76,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n"/>
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>11,85%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>11,26%</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>15,88%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="H44" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>15,18%</t>
         </is>
       </c>
       <c r="I44" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="J44" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>13,25%</t>
+          <t>11,19%</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>12,76%</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>9,35%</t>
         </is>
       </c>
     </row>
@@ -2829,63 +3464,1041 @@
       </c>
       <c r="C45" s="2" t="inlineStr">
         <is>
-          <t>7,58; 11,88</t>
+          <t>2,77; 10,86</t>
         </is>
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>9,39; 16,39</t>
+          <t>5,25; 16,82</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>8,05; 13,19</t>
+          <t>6,67; 18,37</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
         <is>
-          <t>12,79; 17,61</t>
+          <t>2,67; 14,5</t>
         </is>
       </c>
       <c r="G45" s="2" t="inlineStr">
         <is>
-          <t>13,72; 18,58</t>
+          <t>10,57; 22,21</t>
         </is>
       </c>
       <c r="H45" s="2" t="inlineStr">
         <is>
-          <t>14,22; 18,48</t>
+          <t>9,57; 23,56</t>
         </is>
       </c>
       <c r="I45" s="2" t="inlineStr">
         <is>
-          <t>10,92; 14,15</t>
+          <t>8,05; 18,19</t>
         </is>
       </c>
       <c r="J45" s="2" t="inlineStr">
         <is>
-          <t>12,23; 16,53</t>
+          <t>6,71; 18,14</t>
         </is>
       </c>
       <c r="K45" s="2" t="inlineStr">
         <is>
-          <t>11,83; 15,01</t>
+          <t>7,82; 15,17</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>8,54; 18,35</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>8,79; 15,72</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>5,78; 14,2</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>82,13%</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>75,12%</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>73,51%</t>
+        </is>
+      </c>
+      <c r="F46" s="2" t="inlineStr">
+        <is>
+          <t>71,27%</t>
+        </is>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>66,64%</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>66,94%</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>70,96%</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>62,34%</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>73,38%</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>70,35%</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>72,07%</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>66,21%</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>74,53; 88,04</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>58,08; 83,65</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>65,52; 80,76</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
+        <is>
+          <t>59,81; 81,07</t>
+        </is>
+      </c>
+      <c r="G47" s="2" t="inlineStr">
+        <is>
+          <t>57,88; 73,86</t>
+        </is>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>58,02; 74,65</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>63,47; 77,1</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>52,81; 71,71</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>66,67; 78,39</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>62,7; 76,43</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>66,08; 77,19</t>
+        </is>
+      </c>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>58,61; 73,57</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>11,87%</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>15,51%</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>15,23%</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>22,13%</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>18,18%</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>17,88%</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>16,52%</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>26,2%</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>15,44%</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>16,89%</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>15,96%</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>24,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n"/>
+      <c r="B49" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>7,12; 18,07</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 34,24</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>9,27; 23,59</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>12,88; 33,15</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>12,21; 27,7</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>12,46; 24,17</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>11,39; 25,09</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 35,58</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>11,18; 21,39</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>11,73; 25,37</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>11,84; 21,38</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>18,13; 32,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n"/>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n"/>
+      <c r="B51" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B52" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>8,81%</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>10,1%</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>12,03%</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>14,62%</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>13,86%</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>12,41%</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>11,77%</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>4,0; 7,37</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>6,84; 11,51</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>8,23; 12,38</t>
+        </is>
+      </c>
+      <c r="F53" s="2" t="inlineStr">
+        <is>
+          <t>7,01; 12,55</t>
+        </is>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>10,35; 14,4</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>11,25; 16,17</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>12,73; 17,0</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>11,71; 16,22</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>7,41; 10,26</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>9,51; 12,94</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>10,99; 13,77</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>10,2; 13,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>84,69%</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>79,19%</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>79,84%</t>
+        </is>
+      </c>
+      <c r="F54" s="2" t="inlineStr">
+        <is>
+          <t>72,73%</t>
+        </is>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>72,33%</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>70,89%</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>68,73%</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>62,9%</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>78,37%</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>74,94%</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>74,16%</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>67,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>82,06; 87,21</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>75,57; 82,62</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>76,51; 82,6</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>67,89; 76,71</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>69,43; 74,94</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>68,0; 73,71</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>65,96; 71,38</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>59,57; 66,5</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>76,05; 80,21</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>72,25; 77,07</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>72,17; 76,16</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>65,13; 70,38</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n"/>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>9,91%</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>12,0%</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>10,06%</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>17,68%</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>15,64%</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>15,87%</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>16,65%</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>23,24%</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>12,84%</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>13,98%</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>13,43%</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>20,53%</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n"/>
+      <c r="B57" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>7,98; 12,31</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>9,1; 15,45</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>8,08; 12,69</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>14,44; 21,85</t>
+        </is>
+      </c>
+      <c r="G57" s="2" t="inlineStr">
+        <is>
+          <t>13,51; 18,06</t>
+        </is>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 18,17</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>14,55; 19,04</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>20,16; 26,23</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>11,31; 14,71</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>12,28; 16,28</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>11,87; 15,07</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>18,34; 23,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n"/>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n"/>
+      <c r="B59" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A40:A45"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A28:A33"/>
+    <mergeCell ref="A44:A51"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A20:A27"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="A36:A43"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
